--- a/Resources/data_sample_two_efficancy/10963_EV_range_efficiency_1-6-22.xlsx
+++ b/Resources/data_sample_two_efficancy/10963_EV_range_efficiency_1-6-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e052777ce2a3b8e5/Documents/GitHub/Project-2/Resources/data_sample_two_efficancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AE52EB-2BEE-4E8B-84C9-9037A51EDE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C1AE52EB-2BEE-4E8B-84C9-9037A51EDE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C35FC97-ABD2-43F5-B987-7C920F19409E}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7935" yWindow="4200" windowWidth="19245" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EV Range and Efficiency" sheetId="4" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Model Year</t>
-  </si>
-  <si>
     <t>Make</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Vehicle registration data provided by the National Renewable Energy Laboratory and derived from Experian Information Solutions and the Alternative Fuels Data Center</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1164,6 +1164,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1173,16 +1176,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1544,7 @@
   <dimension ref="B1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,21 +1560,21 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>3</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>4</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>1</v>
@@ -1585,10 +1585,10 @@
         <v>2002</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="28">
         <v>50</v>
@@ -1599,10 +1599,10 @@
         <v>2008</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="15">
         <v>220</v>
@@ -1613,10 +1613,10 @@
         <v>2010</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="15">
         <v>200</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="15">
         <v>94</v>
@@ -1641,10 +1641,10 @@
         <v>2011</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="15">
         <v>52</v>
@@ -1655,10 +1655,10 @@
         <v>2011</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="15">
         <v>73</v>
@@ -1669,10 +1669,10 @@
         <v>2011</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E10" s="15">
         <v>63</v>
@@ -1683,10 +1683,10 @@
         <v>2011</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="15">
         <v>245</v>
@@ -1697,10 +1697,10 @@
         <v>2012</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E12" s="15">
         <v>76</v>
@@ -1711,10 +1711,10 @@
         <v>2012</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="15">
         <v>52</v>
@@ -1725,10 +1725,10 @@
         <v>2012</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="15">
         <v>62</v>
@@ -1739,10 +1739,10 @@
         <v>2012</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E15" s="15">
         <v>73</v>
@@ -1753,10 +1753,10 @@
         <v>2012</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E16" s="15">
         <v>265</v>
@@ -1767,10 +1767,10 @@
         <v>2012</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="15">
         <v>103</v>
@@ -1781,10 +1781,10 @@
         <v>2013</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="15">
         <v>87</v>
@@ -1795,10 +1795,10 @@
         <v>2013</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E19" s="15">
         <v>76</v>
@@ -1809,10 +1809,10 @@
         <v>2013</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E20" s="15">
         <v>75</v>
@@ -1823,10 +1823,10 @@
         <v>2013</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E21" s="15">
         <v>68</v>
@@ -1837,10 +1837,10 @@
         <v>2013</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E22" s="15">
         <v>204</v>
@@ -1851,10 +1851,10 @@
         <v>2013</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="15">
         <v>103</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="15">
         <v>81</v>
@@ -1879,10 +1879,10 @@
         <v>2014</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="15">
         <v>82</v>
@@ -1893,10 +1893,10 @@
         <v>2014</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E26" s="15">
         <v>87</v>
@@ -1907,10 +1907,10 @@
         <v>2014</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E27" s="15">
         <v>76</v>
@@ -1921,10 +1921,10 @@
         <v>2014</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="15">
         <v>87</v>
@@ -1935,10 +1935,10 @@
         <v>2014</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="15">
         <v>62</v>
@@ -1949,10 +1949,10 @@
         <v>2014</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E30" s="15">
         <v>84</v>
@@ -1963,10 +1963,10 @@
         <v>2014</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E31" s="15">
         <v>68</v>
@@ -1977,10 +1977,10 @@
         <v>2014</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E32" s="15">
         <v>238</v>
@@ -1991,10 +1991,10 @@
         <v>2014</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="15">
         <v>103</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="15">
         <v>81</v>
@@ -2019,10 +2019,10 @@
         <v>2015</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="15">
         <v>82</v>
@@ -2033,10 +2033,10 @@
         <v>2015</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E36" s="15">
         <v>87</v>
@@ -2047,10 +2047,10 @@
         <v>2015</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E37" s="15">
         <v>76</v>
@@ -2061,10 +2061,10 @@
         <v>2015</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="15">
         <v>93</v>
@@ -2075,10 +2075,10 @@
         <v>2015</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="15">
         <v>87</v>
@@ -2089,10 +2089,10 @@
         <v>2015</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E40" s="15">
         <v>84</v>
@@ -2103,10 +2103,10 @@
         <v>2015</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E41" s="15">
         <v>68</v>
@@ -2117,10 +2117,10 @@
         <v>2015</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E42" s="15">
         <v>253</v>
@@ -2131,10 +2131,10 @@
         <v>2015</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="15">
         <v>83</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="15">
         <v>81</v>
@@ -2159,10 +2159,10 @@
         <v>2016</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="15">
         <v>82</v>
@@ -2173,10 +2173,10 @@
         <v>2016</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E46" s="15">
         <v>84</v>
@@ -2187,10 +2187,10 @@
         <v>2016</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E47" s="15">
         <v>76</v>
@@ -2201,10 +2201,10 @@
         <v>2016</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="15">
         <v>93</v>
@@ -2215,10 +2215,10 @@
         <v>2016</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E49" s="15">
         <v>87</v>
@@ -2229,10 +2229,10 @@
         <v>2016</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="15">
         <v>62</v>
@@ -2243,10 +2243,10 @@
         <v>2016</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E51" s="15">
         <v>96</v>
@@ -2257,10 +2257,10 @@
         <v>2016</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E52" s="15">
         <v>68</v>
@@ -2271,10 +2271,10 @@
         <v>2016</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E53" s="15">
         <v>257</v>
@@ -2285,10 +2285,10 @@
         <v>2016</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="15">
         <v>247</v>
@@ -2299,10 +2299,10 @@
         <v>2016</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="15">
         <v>83</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E56" s="15">
         <v>98</v>
@@ -2327,10 +2327,10 @@
         <v>2017</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="15">
         <v>238</v>
@@ -2341,10 +2341,10 @@
         <v>2017</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E58" s="15">
         <v>84</v>
@@ -2355,10 +2355,10 @@
         <v>2017</v>
       </c>
       <c r="C59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E59" s="15">
         <v>115</v>
@@ -2369,10 +2369,10 @@
         <v>2017</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" s="15">
         <v>89</v>
@@ -2383,10 +2383,10 @@
         <v>2017</v>
       </c>
       <c r="C61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E61" s="15">
         <v>124</v>
@@ -2397,10 +2397,10 @@
         <v>2017</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" s="15">
         <v>93</v>
@@ -2411,10 +2411,10 @@
         <v>2017</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E63" s="15">
         <v>87</v>
@@ -2425,10 +2425,10 @@
         <v>2017</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E64" s="15">
         <v>59</v>
@@ -2439,10 +2439,10 @@
         <v>2017</v>
       </c>
       <c r="C65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E65" s="15">
         <v>107</v>
@@ -2453,10 +2453,10 @@
         <v>2017</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E66" s="15">
         <v>58</v>
@@ -2467,10 +2467,10 @@
         <v>2017</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67" s="15">
         <v>310</v>
@@ -2481,10 +2481,10 @@
         <v>2017</v>
       </c>
       <c r="C68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E68" s="15">
         <v>269</v>
@@ -2495,10 +2495,10 @@
         <v>2017</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E69" s="15">
         <v>255</v>
@@ -2509,10 +2509,10 @@
         <v>2017</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" s="15">
         <v>125</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="15">
         <v>114</v>
@@ -2537,10 +2537,10 @@
         <v>2018</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="15">
         <v>238</v>
@@ -2551,10 +2551,10 @@
         <v>2018</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E73" s="15">
         <v>84</v>
@@ -2565,10 +2565,10 @@
         <v>2018</v>
       </c>
       <c r="C74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E74" s="15">
         <v>115</v>
@@ -2579,10 +2579,10 @@
         <v>2018</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E75" s="15">
         <v>89</v>
@@ -2593,10 +2593,10 @@
         <v>2018</v>
       </c>
       <c r="C76" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E76" s="15">
         <v>124</v>
@@ -2607,10 +2607,10 @@
         <v>2018</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E77" s="15">
         <v>111</v>
@@ -2621,10 +2621,10 @@
         <v>2018</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E78" s="15">
         <v>151</v>
@@ -2635,10 +2635,10 @@
         <v>2018</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E79" s="15">
         <v>58</v>
@@ -2649,10 +2649,10 @@
         <v>2018</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80" s="15">
         <v>298</v>
@@ -2663,10 +2663,10 @@
         <v>2018</v>
       </c>
       <c r="C81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E81" s="15">
         <v>290</v>
@@ -2677,10 +2677,10 @@
         <v>2018</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E82" s="15">
         <v>274</v>
@@ -2691,10 +2691,10 @@
         <v>2018</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E83" s="15">
         <v>125</v>
@@ -2705,10 +2705,10 @@
         <v>2019</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E84" s="15">
         <v>204</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E85" s="15">
         <v>153</v>
@@ -2733,10 +2733,10 @@
         <v>2019</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" s="15">
         <v>238</v>
@@ -2747,10 +2747,10 @@
         <v>2019</v>
       </c>
       <c r="C87" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E87" s="15">
         <v>84</v>
@@ -2761,10 +2761,10 @@
         <v>2019</v>
       </c>
       <c r="C88" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E88" s="15">
         <v>124</v>
@@ -2775,10 +2775,10 @@
         <v>2019</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E89" s="15">
         <v>258</v>
@@ -2789,10 +2789,10 @@
         <v>2019</v>
       </c>
       <c r="C90" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="E90" s="15">
         <v>234</v>
@@ -2803,10 +2803,10 @@
         <v>2019</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E91" s="15">
         <v>239</v>
@@ -2817,10 +2817,10 @@
         <v>2019</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E92" s="15">
         <v>111</v>
@@ -2831,10 +2831,10 @@
         <v>2019</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E93" s="15">
         <v>197</v>
@@ -2845,10 +2845,10 @@
         <v>2019</v>
       </c>
       <c r="C94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E94" s="15">
         <v>58</v>
@@ -2859,10 +2859,10 @@
         <v>2019</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95" s="15">
         <v>276</v>
@@ -2873,10 +2873,10 @@
         <v>2019</v>
       </c>
       <c r="C96" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E96" s="15">
         <v>319</v>
@@ -2887,10 +2887,10 @@
         <v>2019</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E97" s="15">
         <v>283</v>
@@ -2901,10 +2901,10 @@
         <v>2019</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E98" s="15">
         <v>125</v>
@@ -2915,10 +2915,10 @@
         <v>2020</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E99" s="15">
         <v>218</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E100" s="15">
         <v>153</v>
@@ -2943,10 +2943,10 @@
         <v>2020</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E101" s="15">
         <v>259</v>
@@ -2957,10 +2957,10 @@
         <v>2020</v>
       </c>
       <c r="C102" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E102" s="15">
         <v>170</v>
@@ -2971,10 +2971,10 @@
         <v>2020</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E103" s="15">
         <v>258</v>
@@ -2985,10 +2985,10 @@
         <v>2020</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="E104" s="15">
         <v>234</v>
@@ -2999,10 +2999,10 @@
         <v>2020</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E105" s="15">
         <v>239</v>
@@ -3013,10 +3013,10 @@
         <v>2020</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E106" s="15">
         <v>243</v>
@@ -3027,10 +3027,10 @@
         <v>2020</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="E107" s="15">
         <v>110</v>
@@ -3041,10 +3041,10 @@
         <v>2020</v>
       </c>
       <c r="C108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E108" s="15">
         <v>197</v>
@@ -3055,10 +3055,10 @@
         <v>2020</v>
       </c>
       <c r="C109" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E109" s="15">
         <v>199</v>
@@ -3069,10 +3069,10 @@
         <v>2020</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E110" s="15">
         <v>289</v>
@@ -3083,10 +3083,10 @@
         <v>2020</v>
       </c>
       <c r="C111" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E111" s="15">
         <v>347</v>
@@ -3097,10 +3097,10 @@
         <v>2020</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E112" s="15">
         <v>303</v>
@@ -3111,10 +3111,10 @@
         <v>2020</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E113" s="15">
         <v>307</v>
@@ -3125,10 +3125,10 @@
         <v>2021</v>
       </c>
       <c r="C114" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E114" s="15">
         <v>220</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E115" s="15">
         <v>153</v>
@@ -3153,10 +3153,10 @@
         <v>2021</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E116" s="15">
         <v>259</v>
@@ -3167,10 +3167,10 @@
         <v>2021</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E117" s="15">
         <v>221</v>
@@ -3181,10 +3181,10 @@
         <v>2021</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E118" s="15">
         <v>258</v>
@@ -3195,10 +3195,10 @@
         <v>2021</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E119" s="15">
         <v>234</v>
@@ -3209,7 +3209,7 @@
         <v>2021</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D120" s="10">
         <v>2</v>
@@ -3223,10 +3223,10 @@
         <v>2021</v>
       </c>
       <c r="C121" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E121" s="15">
         <v>213</v>
@@ -3237,10 +3237,10 @@
         <v>2021</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E122" s="15">
         <v>310</v>
@@ -3251,10 +3251,10 @@
         <v>2021</v>
       </c>
       <c r="C123" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="E123" s="15">
         <v>361</v>
@@ -3265,10 +3265,10 @@
         <v>2021</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E124" s="15">
         <v>337</v>
@@ -3279,10 +3279,10 @@
         <v>2021</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E125" s="15">
         <v>315</v>
@@ -3293,76 +3293,76 @@
         <v>2021</v>
       </c>
       <c r="C126" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="E126" s="18">
         <v>208</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
+      <c r="B128" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
+      <c r="B129" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
       <c r="F129" s="7"/>
     </row>
     <row r="130" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="35" t="s">
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="35" t="s">
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="35" t="s">
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C134" s="35"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
@@ -3373,39 +3373,39 @@
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
+      <c r="B136" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="35"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
+      <c r="B137" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="2:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
+      <c r="B138" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
       <c r="F138" s="5"/>
     </row>
     <row r="139" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
+      <c r="B139" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="34"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
@@ -3416,24 +3416,26 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B133:E133"/>
     <mergeCell ref="B134:E134"/>
     <mergeCell ref="B128:E128"/>
     <mergeCell ref="B139:E139"/>
@@ -3446,8 +3448,6 @@
     <mergeCell ref="B129:E129"/>
     <mergeCell ref="B137:E137"/>
     <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B133:E133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3468,16 +3468,16 @@
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
